--- a/Output/EDT_RTT_habitat_attribute_score_comparison_SUMMARY.xlsx
+++ b/Output/EDT_RTT_habitat_attribute_score_comparison_SUMMARY.xlsx
@@ -1,92 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Prioritization_Step2_Data_R_Project\Output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40190A58-C61A-4C77-952D-AC94B6E5AB97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4872" yWindow="360" windowWidth="17820" windowHeight="11508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
-  <si>
-    <t>habitat_attribute</t>
-  </si>
-  <si>
-    <t>EDT_greater_than_RTT</t>
-  </si>
-  <si>
-    <t>RTT_greater_than_EDT</t>
-  </si>
-  <si>
-    <t>contaminants</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>flow_scour</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>flow_summer_base_flow</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>food_web</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>temperature_rearing</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>riparian</t>
-  </si>
-  <si>
-    <t>PRCNT_Okanogan_Reaches_EDT_greater_than_RTT</t>
-  </si>
-  <si>
-    <t>PRCNT_Okanogan_Reaches_RTT_greater_than_EDT</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,13 +25,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -127,36 +49,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -203,7 +109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -235,27 +141,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -287,24 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -480,137 +350,175 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="3" width="25.21875" customWidth="1"/>
-    <col min="4" max="5" width="29.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>habitat_attribute</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>EDT_greater_than_RTT</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>RTT_greater_than_EDT</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>PRCNT_Okanogan_Reaches_EDT_greater_than_RTT</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PRCNT_Okanogan_Reaches_RTT_greater_than_EDT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>contaminants</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2">
+        <v>0.34</v>
+      </c>
+      <c r="E2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>flow_scour</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.35</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="E3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>flow_base_flow</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>0.37</v>
+      </c>
+      <c r="E4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>food_web</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D5">
         <v>0</v>
       </c>
-      <c r="E3" s="3">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.66</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="E5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>temperature_rearing</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>0.55</v>
+      </c>
+      <c r="E6">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>riparian</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7">
         <v>0</v>
       </c>
-      <c r="E5" s="3">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="E7">
         <v>0</v>
       </c>
     </row>

--- a/Output/EDT_RTT_habitat_attribute_score_comparison_SUMMARY.xlsx
+++ b/Output/EDT_RTT_habitat_attribute_score_comparison_SUMMARY.xlsx
@@ -392,19 +392,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D2">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="E2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -438,19 +438,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>89</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D4">
-        <v>0.37</v>
+        <v>0.7</v>
       </c>
       <c r="E4">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="5">
@@ -466,14 +466,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="6">
@@ -484,19 +484,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D6">
-        <v>0.55</v>
+        <v>0.24</v>
       </c>
       <c r="E6">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="7">

--- a/Output/EDT_RTT_habitat_attribute_score_comparison_SUMMARY.xlsx
+++ b/Output/EDT_RTT_habitat_attribute_score_comparison_SUMMARY.xlsx
@@ -507,16 +507,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="E7">
         <v>0</v>

--- a/Output/EDT_RTT_habitat_attribute_score_comparison_SUMMARY.xlsx
+++ b/Output/EDT_RTT_habitat_attribute_score_comparison_SUMMARY.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>

--- a/Output/EDT_RTT_habitat_attribute_score_comparison_SUMMARY.xlsx
+++ b/Output/EDT_RTT_habitat_attribute_score_comparison_SUMMARY.xlsx
@@ -392,19 +392,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D2">
-        <v>0.33</v>
+        <v>0.1</v>
       </c>
       <c r="E2">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">

--- a/Output/EDT_RTT_habitat_attribute_score_comparison_SUMMARY.xlsx
+++ b/Output/EDT_RTT_habitat_attribute_score_comparison_SUMMARY.xlsx
@@ -415,19 +415,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="D3">
+        <v>0.04</v>
+      </c>
+      <c r="E3">
         <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -438,19 +438,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>90</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D4">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="E4">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -461,19 +461,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E5">
-        <v>0.39</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="6">
@@ -484,19 +484,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D6">
-        <v>0.24</v>
+        <v>0.43</v>
       </c>
       <c r="E6">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">

--- a/Output/EDT_RTT_habitat_attribute_score_comparison_SUMMARY.xlsx
+++ b/Output/EDT_RTT_habitat_attribute_score_comparison_SUMMARY.xlsx
@@ -392,19 +392,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -438,7 +438,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>114</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.71</v>
+        <v>0.9</v>
       </c>
       <c r="E4">
         <v>0</v>

--- a/Output/EDT_RTT_habitat_attribute_score_comparison_SUMMARY.xlsx
+++ b/Output/EDT_RTT_habitat_attribute_score_comparison_SUMMARY.xlsx
@@ -438,7 +438,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>90</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.9</v>
+        <v>0.71</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -507,16 +507,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="E7">
         <v>0</v>

--- a/Output/EDT_RTT_habitat_attribute_score_comparison_SUMMARY.xlsx
+++ b/Output/EDT_RTT_habitat_attribute_score_comparison_SUMMARY.xlsx
@@ -1,32 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t xml:space="preserve">habitat_attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDT_greater_than_RTT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTT_greater_than_EDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRCNT_Okanogan_Reaches_EDT_greater_than_RTT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRCNT_Okanogan_Reaches_RTT_greater_than_EDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contaminants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flow_scour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flow_base_flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">food_web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">temperature_rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -52,17 +99,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -112,10 +155,6 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -141,15 +180,12 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -175,6 +211,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,179 +387,134 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>habitat_attribute</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>EDT_greater_than_RTT</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>RTT_greater_than_EDT</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>PRCNT_Okanogan_Reaches_EDT_greater_than_RTT</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PRCNT_Okanogan_Reaches_RTT_greater_than_EDT</t>
-        </is>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>contaminants</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>flow_scour</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.04</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>flow_base_flow</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>0.71</v>
-      </c>
-      <c r="E4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>food_web</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.04</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>0.24</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>temperature_rearing</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.43</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>riparian</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.94</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Output/EDT_RTT_habitat_attribute_score_comparison_SUMMARY.xlsx
+++ b/Output/EDT_RTT_habitat_attribute_score_comparison_SUMMARY.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">habitat_attribute</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">flow_base_flow</t>
   </si>
   <si>
-    <t xml:space="preserve">89</t>
+    <t xml:space="preserve">118</t>
   </si>
   <si>
     <t xml:space="preserve">food_web</t>
@@ -56,13 +56,16 @@
     <t xml:space="preserve">temperature_rearing</t>
   </si>
   <si>
-    <t xml:space="preserve">54</t>
+    <t xml:space="preserve">7</t>
   </si>
   <si>
     <t xml:space="preserve">riparian</t>
   </si>
   <si>
-    <t xml:space="preserve">120</t>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93</t>
   </si>
 </sst>
 </file>
@@ -456,7 +459,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7</v>
+        <v>0.93</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -490,7 +493,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.43</v>
+        <v>0.06</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -504,13 +507,13 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>0.94</v>
+        <v>0.21</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>

--- a/Output/EDT_RTT_habitat_attribute_score_comparison_SUMMARY.xlsx
+++ b/Output/EDT_RTT_habitat_attribute_score_comparison_SUMMARY.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">habitat_attribute</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">flow_base_flow</t>
   </si>
   <si>
-    <t xml:space="preserve">118</t>
+    <t xml:space="preserve">89</t>
   </si>
   <si>
     <t xml:space="preserve">food_web</t>
@@ -56,16 +56,13 @@
     <t xml:space="preserve">temperature_rearing</t>
   </si>
   <si>
-    <t xml:space="preserve">7</t>
+    <t xml:space="preserve">54</t>
   </si>
   <si>
     <t xml:space="preserve">riparian</t>
   </si>
   <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93</t>
+    <t xml:space="preserve">120</t>
   </si>
 </sst>
 </file>
@@ -459,7 +456,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.93</v>
+        <v>0.7</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -493,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06</v>
+        <v>0.43</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -507,13 +504,13 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.21</v>
+        <v>0.94</v>
       </c>
       <c r="E7" t="n">
-        <v>0.73</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Output/EDT_RTT_habitat_attribute_score_comparison_SUMMARY.xlsx
+++ b/Output/EDT_RTT_habitat_attribute_score_comparison_SUMMARY.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">habitat_attribute</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t xml:space="preserve">riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120</t>
   </si>
 </sst>
 </file>
@@ -501,13 +498,13 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
